--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F654"/>
+  <dimension ref="A1:F655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A632" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B660" sqref="B660"/>
+    <sheetView tabSelected="1" topLeftCell="A644" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A656" sqref="A656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9265,6 +9265,20 @@
         <v>3</v>
       </c>
       <c r="D654" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A655" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B655">
+        <v>771</v>
+      </c>
+      <c r="C655" t="s">
+        <v>3</v>
+      </c>
+      <c r="D655" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F655"/>
+  <dimension ref="A1:F656"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A644" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A656" sqref="A656"/>
+      <selection activeCell="C656" sqref="C656:D656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9279,6 +9279,20 @@
         <v>3</v>
       </c>
       <c r="D655" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A656" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B656">
+        <v>848</v>
+      </c>
+      <c r="C656" t="s">
+        <v>3</v>
+      </c>
+      <c r="D656" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F656"/>
+  <dimension ref="A1:F657"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A644" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C656" sqref="C656:D656"/>
+      <selection activeCell="B658" sqref="B658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9293,6 +9293,20 @@
         <v>3</v>
       </c>
       <c r="D656" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A657" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B657">
+        <v>808</v>
+      </c>
+      <c r="C657" t="s">
+        <v>3</v>
+      </c>
+      <c r="D657" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F657"/>
+  <dimension ref="A1:F658"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A644" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B658" sqref="B658"/>
+      <selection activeCell="A659" sqref="A659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9307,6 +9307,21 @@
         <v>3</v>
       </c>
       <c r="D657" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A658" s="1">
+        <f>A657+7</f>
+        <v>44789</v>
+      </c>
+      <c r="B658">
+        <v>698</v>
+      </c>
+      <c r="C658" t="s">
+        <v>3</v>
+      </c>
+      <c r="D658" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F658"/>
+  <dimension ref="A1:F659"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A644" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A659" sqref="A659"/>
+      <selection activeCell="B660" sqref="B660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9322,6 +9322,21 @@
         <v>3</v>
       </c>
       <c r="D658" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A659" s="1">
+        <f>A658+7</f>
+        <v>44796</v>
+      </c>
+      <c r="B659">
+        <v>642</v>
+      </c>
+      <c r="C659" t="s">
+        <v>3</v>
+      </c>
+      <c r="D659" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -407,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F659"/>
+  <dimension ref="A1:F660"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A644" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B660" sqref="B660"/>
+      <selection activeCell="A661" sqref="A661"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -786,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -811,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -903,7 +903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -945,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -995,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>44683</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>44684</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>44685</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>44686</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>44687</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>44690</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>44691</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>44692</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>44693</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>44694</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>44697</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>44698</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>44699</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>44700</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>44701</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>44704</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>44711</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>44714</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>44719</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>44721</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>44725</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>44728</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>44732</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>44735</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>44739</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>44742</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>44746</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>44749</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>44753</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>44756</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>44761</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>44768</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>44775</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>44782</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <f>A657+7</f>
         <v>44789</v>
@@ -9325,7 +9325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <f>A658+7</f>
         <v>44796</v>
@@ -9337,6 +9337,20 @@
         <v>3</v>
       </c>
       <c r="D659" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B660">
+        <v>491</v>
+      </c>
+      <c r="C660" t="s">
+        <v>3</v>
+      </c>
+      <c r="D660" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8916"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -407,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F660"/>
+  <dimension ref="A1:F662"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A644" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A661" sqref="A661"/>
+      <selection activeCell="B663" sqref="B663"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -786,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -811,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -903,7 +903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -945,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -995,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>44683</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>44684</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>44685</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>44686</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>44687</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>44690</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>44691</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>44692</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>44693</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>44694</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>44697</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>44698</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>44699</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>44700</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>44701</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>44704</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>44711</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>44714</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>44719</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>44721</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>44725</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>44728</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>44732</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>44735</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>44739</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>44742</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>44746</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>44749</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>44753</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>44756</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>44761</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>44768</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>44775</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>44782</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <f>A657+7</f>
         <v>44789</v>
@@ -9325,7 +9325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <f>A658+7</f>
         <v>44796</v>
@@ -9340,8 +9340,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
+        <f>A659+7</f>
         <v>44803</v>
       </c>
       <c r="B660">
@@ -9351,6 +9352,36 @@
         <v>3</v>
       </c>
       <c r="D660" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A661" s="1">
+        <f>A660+7</f>
+        <v>44810</v>
+      </c>
+      <c r="B661">
+        <v>473</v>
+      </c>
+      <c r="C661" t="s">
+        <v>3</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A662" s="1">
+        <f>A661+7</f>
+        <v>44817</v>
+      </c>
+      <c r="B662">
+        <v>441</v>
+      </c>
+      <c r="C662" t="s">
+        <v>3</v>
+      </c>
+      <c r="D662" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F662"/>
+  <dimension ref="A1:F663"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A644" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B663" sqref="B663"/>
+      <selection activeCell="B664" sqref="B664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9382,6 +9382,21 @@
         <v>3</v>
       </c>
       <c r="D662" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A663" s="1">
+        <f>A662+7</f>
+        <v>44824</v>
+      </c>
+      <c r="B663">
+        <v>493</v>
+      </c>
+      <c r="C663" t="s">
+        <v>3</v>
+      </c>
+      <c r="D663" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F663"/>
+  <dimension ref="A1:F664"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A644" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B664" sqref="B664"/>
+      <selection activeCell="C664" sqref="C664:D664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
-        <f>A657+7</f>
+        <f t="shared" ref="A658:A664" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9327,7 +9327,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
-        <f>A658+7</f>
+        <f t="shared" si="0"/>
         <v>44796</v>
       </c>
       <c r="B659">
@@ -9342,7 +9342,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
-        <f>A659+7</f>
+        <f t="shared" si="0"/>
         <v>44803</v>
       </c>
       <c r="B660">
@@ -9357,7 +9357,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
-        <f>A660+7</f>
+        <f t="shared" si="0"/>
         <v>44810</v>
       </c>
       <c r="B661">
@@ -9372,7 +9372,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
-        <f>A661+7</f>
+        <f t="shared" si="0"/>
         <v>44817</v>
       </c>
       <c r="B662">
@@ -9387,7 +9387,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
-        <f>A662+7</f>
+        <f t="shared" si="0"/>
         <v>44824</v>
       </c>
       <c r="B663">
@@ -9397,6 +9397,21 @@
         <v>3</v>
       </c>
       <c r="D663" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A664" s="1">
+        <f t="shared" si="0"/>
+        <v>44831</v>
+      </c>
+      <c r="B664">
+        <v>634</v>
+      </c>
+      <c r="C664" t="s">
+        <v>3</v>
+      </c>
+      <c r="D664" s="2" t="s">
         <v>16</v>
       </c>
     </row>
